--- a/Data/Sampling_input.xlsx
+++ b/Data/Sampling_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/upload/Git/Newest/Glance_sampling/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/upload/Git/Newest/Glance_sampling/Glance_sampling/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA2B11F-E3AB-41B7-A8F2-AB4E9F264F34}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F65C870C-E53C-44D9-8F60-B89CCD9A23C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
+    <workbookView xWindow="5112" yWindow="1740" windowWidth="17280" windowHeight="9024" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>sim_order</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>reduce_simulations_by_logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">propto eoff_acc_prob * eoff * abs(acc) * maximpact0 </t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E261EBCA-2599-45D2-83B6-1D4CFFC0FCA3}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +459,7 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,8 +475,11 @@
       <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -486,8 +495,11 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -503,8 +515,11 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -520,8 +535,11 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -537,8 +555,11 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -554,8 +575,11 @@
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -571,8 +595,11 @@
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -588,8 +615,11 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -604,6 +634,49 @@
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sampling_input.xlsx
+++ b/Data/Sampling_input.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/upload/Git/Newest/Glance_sampling/Glance_sampling/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XYANG118\OneDrive - Volvo Cars\Documents\Newest20220908\Glance_sampling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F65C870C-E53C-44D9-8F60-B89CCD9A23C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E62D502-92BD-4B6F-B11D-E36697150B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="1740" windowWidth="17280" windowHeight="9024" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>sim_order</t>
   </si>
@@ -51,43 +51,16 @@
     <t>optimised</t>
   </si>
   <si>
-    <t>uniform</t>
-  </si>
-  <si>
-    <t>importance sampling</t>
-  </si>
-  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>baseline impact speed distribution</t>
-  </si>
-  <si>
-    <t>impact speed reduction</t>
-  </si>
-  <si>
-    <t>crash avoidance</t>
-  </si>
-  <si>
-    <t>injury risk reduction</t>
-  </si>
-  <si>
-    <t>injury risk reduction, stratified</t>
-  </si>
-  <si>
-    <t>propto eoff_acc_prob</t>
-  </si>
-  <si>
-    <t>propto eoff_acc_prob * eoff * abs(acc) * maximpact0</t>
   </si>
   <si>
     <t>group</t>
   </si>
   <si>
-    <t>reduce_simulations_by_logic</t>
+    <t>use_logic</t>
   </si>
   <si>
-    <t xml:space="preserve">propto eoff_acc_prob * eoff * abs(acc) * maximpact0 </t>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -123,12 +96,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E261EBCA-2599-45D2-83B6-1D4CFFC0FCA3}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,225 +433,2139 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1025" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
+      <c r="E1" t="s">
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
+      <c r="CY1" s="1"/>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1"/>
+      <c r="DH1" s="1"/>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1"/>
+      <c r="DL1" s="1"/>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1"/>
+      <c r="DP1" s="1"/>
+      <c r="DQ1" s="1"/>
+      <c r="DR1" s="1"/>
+      <c r="DS1" s="1"/>
+      <c r="DT1" s="1"/>
+      <c r="DU1" s="1"/>
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
+      <c r="DY1" s="1"/>
+      <c r="DZ1" s="1"/>
+      <c r="EA1" s="1"/>
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1"/>
+      <c r="ED1" s="1"/>
+      <c r="EE1" s="1"/>
+      <c r="EF1" s="1"/>
+      <c r="EG1" s="1"/>
+      <c r="EH1" s="1"/>
+      <c r="EI1" s="1"/>
+      <c r="EJ1" s="1"/>
+      <c r="EK1" s="1"/>
+      <c r="EL1" s="1"/>
+      <c r="EM1" s="1"/>
+      <c r="EN1" s="1"/>
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
+      <c r="ER1" s="1"/>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1"/>
+      <c r="EV1" s="1"/>
+      <c r="EW1" s="1"/>
+      <c r="EX1" s="1"/>
+      <c r="EY1" s="1"/>
+      <c r="EZ1" s="1"/>
+      <c r="FA1" s="1"/>
+      <c r="FB1" s="1"/>
+      <c r="FC1" s="1"/>
+      <c r="FD1" s="1"/>
+      <c r="FE1" s="1"/>
+      <c r="FF1" s="1"/>
+      <c r="FG1" s="1"/>
+      <c r="FH1" s="1"/>
+      <c r="FI1" s="1"/>
+      <c r="FJ1" s="1"/>
+      <c r="FK1" s="1"/>
+      <c r="FL1" s="1"/>
+      <c r="FM1" s="1"/>
+      <c r="FN1" s="1"/>
+      <c r="FO1" s="1"/>
+      <c r="FP1" s="1"/>
+      <c r="FQ1" s="1"/>
+      <c r="FR1" s="1"/>
+      <c r="FS1" s="1"/>
+      <c r="FT1" s="1"/>
+      <c r="FU1" s="1"/>
+      <c r="FV1" s="1"/>
+      <c r="FW1" s="1"/>
+      <c r="FX1" s="1"/>
+      <c r="FY1" s="1"/>
+      <c r="FZ1" s="1"/>
+      <c r="GA1" s="1"/>
+      <c r="GB1" s="1"/>
+      <c r="GC1" s="1"/>
+      <c r="GD1" s="1"/>
+      <c r="GE1" s="1"/>
+      <c r="GF1" s="1"/>
+      <c r="GG1" s="1"/>
+      <c r="GH1" s="1"/>
+      <c r="GI1" s="1"/>
+      <c r="GJ1" s="1"/>
+      <c r="GK1" s="1"/>
+      <c r="GL1" s="1"/>
+      <c r="GM1" s="1"/>
+      <c r="GN1" s="1"/>
+      <c r="GO1" s="1"/>
+      <c r="GP1" s="1"/>
+      <c r="GQ1" s="1"/>
+      <c r="GR1" s="1"/>
+      <c r="GS1" s="1"/>
+      <c r="GT1" s="1"/>
+      <c r="GU1" s="1"/>
+      <c r="GV1" s="1"/>
+      <c r="GW1" s="1"/>
+      <c r="GX1" s="1"/>
+      <c r="GY1" s="1"/>
+      <c r="GZ1" s="1"/>
+      <c r="HA1" s="1"/>
+      <c r="HB1" s="1"/>
+      <c r="HC1" s="1"/>
+      <c r="HD1" s="1"/>
+      <c r="HE1" s="1"/>
+      <c r="HF1" s="1"/>
+      <c r="HG1" s="1"/>
+      <c r="HH1" s="1"/>
+      <c r="HI1" s="1"/>
+      <c r="HJ1" s="1"/>
+      <c r="HK1" s="1"/>
+      <c r="HL1" s="1"/>
+      <c r="HM1" s="1"/>
+      <c r="HN1" s="1"/>
+      <c r="HO1" s="1"/>
+      <c r="HP1" s="1"/>
+      <c r="HQ1" s="1"/>
+      <c r="HR1" s="1"/>
+      <c r="HS1" s="1"/>
+      <c r="HT1" s="1"/>
+      <c r="HU1" s="1"/>
+      <c r="HV1" s="1"/>
+      <c r="HW1" s="1"/>
+      <c r="HX1" s="1"/>
+      <c r="HY1" s="1"/>
+      <c r="HZ1" s="1"/>
+      <c r="IA1" s="1"/>
+      <c r="IB1" s="1"/>
+      <c r="IC1" s="1"/>
+      <c r="ID1" s="1"/>
+      <c r="IE1" s="1"/>
+      <c r="IF1" s="1"/>
+      <c r="IG1" s="1"/>
+      <c r="IH1" s="1"/>
+      <c r="II1" s="1"/>
+      <c r="IJ1" s="1"/>
+      <c r="IK1" s="1"/>
+      <c r="IL1" s="1"/>
+      <c r="IM1" s="1"/>
+      <c r="IN1" s="1"/>
+      <c r="IO1" s="1"/>
+      <c r="IP1" s="1"/>
+      <c r="IQ1" s="1"/>
+      <c r="IR1" s="1"/>
+      <c r="IS1" s="1"/>
+      <c r="IT1" s="1"/>
+      <c r="IU1" s="1"/>
+      <c r="IV1" s="1"/>
+      <c r="IW1" s="1"/>
+      <c r="IX1" s="1"/>
+      <c r="IY1" s="1"/>
+      <c r="IZ1" s="1"/>
+      <c r="JA1" s="1"/>
+      <c r="JB1" s="1"/>
+      <c r="JC1" s="1"/>
+      <c r="JD1" s="1"/>
+      <c r="JE1" s="1"/>
+      <c r="JF1" s="1"/>
+      <c r="JG1" s="1"/>
+      <c r="JH1" s="1"/>
+      <c r="JI1" s="1"/>
+      <c r="JJ1" s="1"/>
+      <c r="JK1" s="1"/>
+      <c r="JL1" s="1"/>
+      <c r="JM1" s="1"/>
+      <c r="JN1" s="1"/>
+      <c r="JO1" s="1"/>
+      <c r="JP1" s="1"/>
+      <c r="JQ1" s="1"/>
+      <c r="JR1" s="1"/>
+      <c r="JS1" s="1"/>
+      <c r="JT1" s="1"/>
+      <c r="JU1" s="1"/>
+      <c r="JV1" s="1"/>
+      <c r="JW1" s="1"/>
+      <c r="JX1" s="1"/>
+      <c r="JY1" s="1"/>
+      <c r="JZ1" s="1"/>
+      <c r="KA1" s="1"/>
+      <c r="KB1" s="1"/>
+      <c r="KC1" s="1"/>
+      <c r="KD1" s="1"/>
+      <c r="KE1" s="1"/>
+      <c r="KF1" s="1"/>
+      <c r="KG1" s="1"/>
+      <c r="KH1" s="1"/>
+      <c r="KI1" s="1"/>
+      <c r="KJ1" s="1"/>
+      <c r="KK1" s="1"/>
+      <c r="KL1" s="1"/>
+      <c r="KM1" s="1"/>
+      <c r="KN1" s="1"/>
+      <c r="KO1" s="1"/>
+      <c r="KP1" s="1"/>
+      <c r="KQ1" s="1"/>
+      <c r="KR1" s="1"/>
+      <c r="KS1" s="1"/>
+      <c r="KT1" s="1"/>
+      <c r="KU1" s="1"/>
+      <c r="KV1" s="1"/>
+      <c r="KW1" s="1"/>
+      <c r="KX1" s="1"/>
+      <c r="KY1" s="1"/>
+      <c r="KZ1" s="1"/>
+      <c r="LA1" s="1"/>
+      <c r="LB1" s="1"/>
+      <c r="LC1" s="1"/>
+      <c r="LD1" s="1"/>
+      <c r="LE1" s="1"/>
+      <c r="LF1" s="1"/>
+      <c r="LG1" s="1"/>
+      <c r="LH1" s="1"/>
+      <c r="LI1" s="1"/>
+      <c r="LJ1" s="1"/>
+      <c r="LK1" s="1"/>
+      <c r="LL1" s="1"/>
+      <c r="LM1" s="1"/>
+      <c r="LN1" s="1"/>
+      <c r="LO1" s="1"/>
+      <c r="LP1" s="1"/>
+      <c r="LQ1" s="1"/>
+      <c r="LR1" s="1"/>
+      <c r="LS1" s="1"/>
+      <c r="LT1" s="1"/>
+      <c r="LU1" s="1"/>
+      <c r="LV1" s="1"/>
+      <c r="LW1" s="1"/>
+      <c r="LX1" s="1"/>
+      <c r="LY1" s="1"/>
+      <c r="LZ1" s="1"/>
+      <c r="MA1" s="1"/>
+      <c r="MB1" s="1"/>
+      <c r="MC1" s="1"/>
+      <c r="MD1" s="1"/>
+      <c r="ME1" s="1"/>
+      <c r="MF1" s="1"/>
+      <c r="MG1" s="1"/>
+      <c r="MH1" s="1"/>
+      <c r="MI1" s="1"/>
+      <c r="MJ1" s="1"/>
+      <c r="MK1" s="1"/>
+      <c r="ML1" s="1"/>
+      <c r="MM1" s="1"/>
+      <c r="MN1" s="1"/>
+      <c r="MO1" s="1"/>
+      <c r="MP1" s="1"/>
+      <c r="MQ1" s="1"/>
+      <c r="MR1" s="1"/>
+      <c r="MS1" s="1"/>
+      <c r="MT1" s="1"/>
+      <c r="MU1" s="1"/>
+      <c r="MV1" s="1"/>
+      <c r="MW1" s="1"/>
+      <c r="MX1" s="1"/>
+      <c r="MY1" s="1"/>
+      <c r="MZ1" s="1"/>
+      <c r="NA1" s="1"/>
+      <c r="NB1" s="1"/>
+      <c r="NC1" s="1"/>
+      <c r="ND1" s="1"/>
+      <c r="NE1" s="1"/>
+      <c r="NF1" s="1"/>
+      <c r="NG1" s="1"/>
+      <c r="NH1" s="1"/>
+      <c r="NI1" s="1"/>
+      <c r="NJ1" s="1"/>
+      <c r="NK1" s="1"/>
+      <c r="NL1" s="1"/>
+      <c r="NM1" s="1"/>
+      <c r="NN1" s="1"/>
+      <c r="NO1" s="1"/>
+      <c r="NP1" s="1"/>
+      <c r="NQ1" s="1"/>
+      <c r="NR1" s="1"/>
+      <c r="NS1" s="1"/>
+      <c r="NT1" s="1"/>
+      <c r="NU1" s="1"/>
+      <c r="NV1" s="1"/>
+      <c r="NW1" s="1"/>
+      <c r="NX1" s="1"/>
+      <c r="NY1" s="1"/>
+      <c r="NZ1" s="1"/>
+      <c r="OA1" s="1"/>
+      <c r="OB1" s="1"/>
+      <c r="OC1" s="1"/>
+      <c r="OD1" s="1"/>
+      <c r="OE1" s="1"/>
+      <c r="OF1" s="1"/>
+      <c r="OG1" s="1"/>
+      <c r="OH1" s="1"/>
+      <c r="OI1" s="1"/>
+      <c r="OJ1" s="1"/>
+      <c r="OK1" s="1"/>
+      <c r="OL1" s="1"/>
+      <c r="OM1" s="1"/>
+      <c r="ON1" s="1"/>
+      <c r="OO1" s="1"/>
+      <c r="OP1" s="1"/>
+      <c r="OQ1" s="1"/>
+      <c r="OR1" s="1"/>
+      <c r="OS1" s="1"/>
+      <c r="OT1" s="1"/>
+      <c r="OU1" s="1"/>
+      <c r="OV1" s="1"/>
+      <c r="OW1" s="1"/>
+      <c r="OX1" s="1"/>
+      <c r="OY1" s="1"/>
+      <c r="OZ1" s="1"/>
+      <c r="PA1" s="1"/>
+      <c r="PB1" s="1"/>
+      <c r="PC1" s="1"/>
+      <c r="PD1" s="1"/>
+      <c r="PE1" s="1"/>
+      <c r="PF1" s="1"/>
+      <c r="PG1" s="1"/>
+      <c r="PH1" s="1"/>
+      <c r="PI1" s="1"/>
+      <c r="PJ1" s="1"/>
+      <c r="PK1" s="1"/>
+      <c r="PL1" s="1"/>
+      <c r="PM1" s="1"/>
+      <c r="PN1" s="1"/>
+      <c r="PO1" s="1"/>
+      <c r="PP1" s="1"/>
+      <c r="PQ1" s="1"/>
+      <c r="PR1" s="1"/>
+      <c r="PS1" s="1"/>
+      <c r="PT1" s="1"/>
+      <c r="PU1" s="1"/>
+      <c r="PV1" s="1"/>
+      <c r="PW1" s="1"/>
+      <c r="PX1" s="1"/>
+      <c r="PY1" s="1"/>
+      <c r="PZ1" s="1"/>
+      <c r="QA1" s="1"/>
+      <c r="QB1" s="1"/>
+      <c r="QC1" s="1"/>
+      <c r="QD1" s="1"/>
+      <c r="QE1" s="1"/>
+      <c r="QF1" s="1"/>
+      <c r="QG1" s="1"/>
+      <c r="QH1" s="1"/>
+      <c r="QI1" s="1"/>
+      <c r="QJ1" s="1"/>
+      <c r="QK1" s="1"/>
+      <c r="QL1" s="1"/>
+      <c r="QM1" s="1"/>
+      <c r="QN1" s="1"/>
+      <c r="QO1" s="1"/>
+      <c r="QP1" s="1"/>
+      <c r="QQ1" s="1"/>
+      <c r="QR1" s="1"/>
+      <c r="QS1" s="1"/>
+      <c r="QT1" s="1"/>
+      <c r="QU1" s="1"/>
+      <c r="QV1" s="1"/>
+      <c r="QW1" s="1"/>
+      <c r="QX1" s="1"/>
+      <c r="QY1" s="1"/>
+      <c r="QZ1" s="1"/>
+      <c r="RA1" s="1"/>
+      <c r="RB1" s="1"/>
+      <c r="RC1" s="1"/>
+      <c r="RD1" s="1"/>
+      <c r="RE1" s="1"/>
+      <c r="RF1" s="1"/>
+      <c r="RG1" s="1"/>
+      <c r="RH1" s="1"/>
+      <c r="RI1" s="1"/>
+      <c r="RJ1" s="1"/>
+      <c r="RK1" s="1"/>
+      <c r="RL1" s="1"/>
+      <c r="RM1" s="1"/>
+      <c r="RN1" s="1"/>
+      <c r="RO1" s="1"/>
+      <c r="RP1" s="1"/>
+      <c r="RQ1" s="1"/>
+      <c r="RR1" s="1"/>
+      <c r="RS1" s="1"/>
+      <c r="RT1" s="1"/>
+      <c r="RU1" s="1"/>
+      <c r="RV1" s="1"/>
+      <c r="RW1" s="1"/>
+      <c r="RX1" s="1"/>
+      <c r="RY1" s="1"/>
+      <c r="RZ1" s="1"/>
+      <c r="SA1" s="1"/>
+      <c r="SB1" s="1"/>
+      <c r="SC1" s="1"/>
+      <c r="SD1" s="1"/>
+      <c r="SE1" s="1"/>
+      <c r="SF1" s="1"/>
+      <c r="SG1" s="1"/>
+      <c r="SH1" s="1"/>
+      <c r="SI1" s="1"/>
+      <c r="SJ1" s="1"/>
+      <c r="SK1" s="1"/>
+      <c r="SL1" s="1"/>
+      <c r="SM1" s="1"/>
+      <c r="SN1" s="1"/>
+      <c r="SO1" s="1"/>
+      <c r="SP1" s="1"/>
+      <c r="SQ1" s="1"/>
+      <c r="SR1" s="1"/>
+      <c r="SS1" s="1"/>
+      <c r="ST1" s="1"/>
+      <c r="SU1" s="1"/>
+      <c r="SV1" s="1"/>
+      <c r="SW1" s="1"/>
+      <c r="SX1" s="1"/>
+      <c r="SY1" s="1"/>
+      <c r="SZ1" s="1"/>
+      <c r="TA1" s="1"/>
+      <c r="TB1" s="1"/>
+      <c r="TC1" s="1"/>
+      <c r="TD1" s="1"/>
+      <c r="TE1" s="1"/>
+      <c r="TF1" s="1"/>
+      <c r="TG1" s="1"/>
+      <c r="TH1" s="1"/>
+      <c r="TI1" s="1"/>
+      <c r="TJ1" s="1"/>
+      <c r="TK1" s="1"/>
+      <c r="TL1" s="1"/>
+      <c r="TM1" s="1"/>
+      <c r="TN1" s="1"/>
+      <c r="TO1" s="1"/>
+      <c r="TP1" s="1"/>
+      <c r="TQ1" s="1"/>
+      <c r="TR1" s="1"/>
+      <c r="TS1" s="1"/>
+      <c r="TT1" s="1"/>
+      <c r="TU1" s="1"/>
+      <c r="TV1" s="1"/>
+      <c r="TW1" s="1"/>
+      <c r="TX1" s="1"/>
+      <c r="TY1" s="1"/>
+      <c r="TZ1" s="1"/>
+      <c r="UA1" s="1"/>
+      <c r="UB1" s="1"/>
+      <c r="UC1" s="1"/>
+      <c r="UD1" s="1"/>
+      <c r="UE1" s="1"/>
+      <c r="UF1" s="1"/>
+      <c r="UG1" s="1"/>
+      <c r="UH1" s="1"/>
+      <c r="UI1" s="1"/>
+      <c r="UJ1" s="1"/>
+      <c r="UK1" s="1"/>
+      <c r="UL1" s="1"/>
+      <c r="UM1" s="1"/>
+      <c r="UN1" s="1"/>
+      <c r="UO1" s="1"/>
+      <c r="UP1" s="1"/>
+      <c r="UQ1" s="1"/>
+      <c r="UR1" s="1"/>
+      <c r="US1" s="1"/>
+      <c r="UT1" s="1"/>
+      <c r="UU1" s="1"/>
+      <c r="UV1" s="1"/>
+      <c r="UW1" s="1"/>
+      <c r="UX1" s="1"/>
+      <c r="UY1" s="1"/>
+      <c r="UZ1" s="1"/>
+      <c r="VA1" s="1"/>
+      <c r="VB1" s="1"/>
+      <c r="VC1" s="1"/>
+      <c r="VD1" s="1"/>
+      <c r="VE1" s="1"/>
+      <c r="VF1" s="1"/>
+      <c r="VG1" s="1"/>
+      <c r="VH1" s="1"/>
+      <c r="VI1" s="1"/>
+      <c r="VJ1" s="1"/>
+      <c r="VK1" s="1"/>
+      <c r="VL1" s="1"/>
+      <c r="VM1" s="1"/>
+      <c r="VN1" s="1"/>
+      <c r="VO1" s="1"/>
+      <c r="VP1" s="1"/>
+      <c r="VQ1" s="1"/>
+      <c r="VR1" s="1"/>
+      <c r="VS1" s="1"/>
+      <c r="VT1" s="1"/>
+      <c r="VU1" s="1"/>
+      <c r="VV1" s="1"/>
+      <c r="VW1" s="1"/>
+      <c r="VX1" s="1"/>
+      <c r="VY1" s="1"/>
+      <c r="VZ1" s="1"/>
+      <c r="WA1" s="1"/>
+      <c r="WB1" s="1"/>
+      <c r="WC1" s="1"/>
+      <c r="WD1" s="1"/>
+      <c r="WE1" s="1"/>
+      <c r="WF1" s="1"/>
+      <c r="WG1" s="1"/>
+      <c r="WH1" s="1"/>
+      <c r="WI1" s="1"/>
+      <c r="WJ1" s="1"/>
+      <c r="WK1" s="1"/>
+      <c r="WL1" s="1"/>
+      <c r="WM1" s="1"/>
+      <c r="WN1" s="1"/>
+      <c r="WO1" s="1"/>
+      <c r="WP1" s="1"/>
+      <c r="WQ1" s="1"/>
+      <c r="WR1" s="1"/>
+      <c r="WS1" s="1"/>
+      <c r="WT1" s="1"/>
+      <c r="WU1" s="1"/>
+      <c r="WV1" s="1"/>
+      <c r="WW1" s="1"/>
+      <c r="WX1" s="1"/>
+      <c r="WY1" s="1"/>
+      <c r="WZ1" s="1"/>
+      <c r="XA1" s="1"/>
+      <c r="XB1" s="1"/>
+      <c r="XC1" s="1"/>
+      <c r="XD1" s="1"/>
+      <c r="XE1" s="1"/>
+      <c r="XF1" s="1"/>
+      <c r="XG1" s="1"/>
+      <c r="XH1" s="1"/>
+      <c r="XI1" s="1"/>
+      <c r="XJ1" s="1"/>
+      <c r="XK1" s="1"/>
+      <c r="XL1" s="1"/>
+      <c r="XM1" s="1"/>
+      <c r="XN1" s="1"/>
+      <c r="XO1" s="1"/>
+      <c r="XP1" s="1"/>
+      <c r="XQ1" s="1"/>
+      <c r="XR1" s="1"/>
+      <c r="XS1" s="1"/>
+      <c r="XT1" s="1"/>
+      <c r="XU1" s="1"/>
+      <c r="XV1" s="1"/>
+      <c r="XW1" s="1"/>
+      <c r="XX1" s="1"/>
+      <c r="XY1" s="1"/>
+      <c r="XZ1" s="1"/>
+      <c r="YA1" s="1"/>
+      <c r="YB1" s="1"/>
+      <c r="YC1" s="1"/>
+      <c r="YD1" s="1"/>
+      <c r="YE1" s="1"/>
+      <c r="YF1" s="1"/>
+      <c r="YG1" s="1"/>
+      <c r="YH1" s="1"/>
+      <c r="YI1" s="1"/>
+      <c r="YJ1" s="1"/>
+      <c r="YK1" s="1"/>
+      <c r="YL1" s="1"/>
+      <c r="YM1" s="1"/>
+      <c r="YN1" s="1"/>
+      <c r="YO1" s="1"/>
+      <c r="YP1" s="1"/>
+      <c r="YQ1" s="1"/>
+      <c r="YR1" s="1"/>
+      <c r="YS1" s="1"/>
+      <c r="YT1" s="1"/>
+      <c r="YU1" s="1"/>
+      <c r="YV1" s="1"/>
+      <c r="YW1" s="1"/>
+      <c r="YX1" s="1"/>
+      <c r="YY1" s="1"/>
+      <c r="YZ1" s="1"/>
+      <c r="ZA1" s="1"/>
+      <c r="ZB1" s="1"/>
+      <c r="ZC1" s="1"/>
+      <c r="ZD1" s="1"/>
+      <c r="ZE1" s="1"/>
+      <c r="ZF1" s="1"/>
+      <c r="ZG1" s="1"/>
+      <c r="ZH1" s="1"/>
+      <c r="ZI1" s="1"/>
+      <c r="ZJ1" s="1"/>
+      <c r="ZK1" s="1"/>
+      <c r="ZL1" s="1"/>
+      <c r="ZM1" s="1"/>
+      <c r="ZN1" s="1"/>
+      <c r="ZO1" s="1"/>
+      <c r="ZP1" s="1"/>
+      <c r="ZQ1" s="1"/>
+      <c r="ZR1" s="1"/>
+      <c r="ZS1" s="1"/>
+      <c r="ZT1" s="1"/>
+      <c r="ZU1" s="1"/>
+      <c r="ZV1" s="1"/>
+      <c r="ZW1" s="1"/>
+      <c r="ZX1" s="1"/>
+      <c r="ZY1" s="1"/>
+      <c r="ZZ1" s="1"/>
+      <c r="AAA1" s="1"/>
+      <c r="AAB1" s="1"/>
+      <c r="AAC1" s="1"/>
+      <c r="AAD1" s="1"/>
+      <c r="AAE1" s="1"/>
+      <c r="AAF1" s="1"/>
+      <c r="AAG1" s="1"/>
+      <c r="AAH1" s="1"/>
+      <c r="AAI1" s="1"/>
+      <c r="AAJ1" s="1"/>
+      <c r="AAK1" s="1"/>
+      <c r="AAL1" s="1"/>
+      <c r="AAM1" s="1"/>
+      <c r="AAN1" s="1"/>
+      <c r="AAO1" s="1"/>
+      <c r="AAP1" s="1"/>
+      <c r="AAQ1" s="1"/>
+      <c r="AAR1" s="1"/>
+      <c r="AAS1" s="1"/>
+      <c r="AAT1" s="1"/>
+      <c r="AAU1" s="1"/>
+      <c r="AAV1" s="1"/>
+      <c r="AAW1" s="1"/>
+      <c r="AAX1" s="1"/>
+      <c r="AAY1" s="1"/>
+      <c r="AAZ1" s="1"/>
+      <c r="ABA1" s="1"/>
+      <c r="ABB1" s="1"/>
+      <c r="ABC1" s="1"/>
+      <c r="ABD1" s="1"/>
+      <c r="ABE1" s="1"/>
+      <c r="ABF1" s="1"/>
+      <c r="ABG1" s="1"/>
+      <c r="ABH1" s="1"/>
+      <c r="ABI1" s="1"/>
+      <c r="ABJ1" s="1"/>
+      <c r="ABK1" s="1"/>
+      <c r="ABL1" s="1"/>
+      <c r="ABM1" s="1"/>
+      <c r="ABN1" s="1"/>
+      <c r="ABO1" s="1"/>
+      <c r="ABP1" s="1"/>
+      <c r="ABQ1" s="1"/>
+      <c r="ABR1" s="1"/>
+      <c r="ABS1" s="1"/>
+      <c r="ABT1" s="1"/>
+      <c r="ABU1" s="1"/>
+      <c r="ABV1" s="1"/>
+      <c r="ABW1" s="1"/>
+      <c r="ABX1" s="1"/>
+      <c r="ABY1" s="1"/>
+      <c r="ABZ1" s="1"/>
+      <c r="ACA1" s="1"/>
+      <c r="ACB1" s="1"/>
+      <c r="ACC1" s="1"/>
+      <c r="ACD1" s="1"/>
+      <c r="ACE1" s="1"/>
+      <c r="ACF1" s="1"/>
+      <c r="ACG1" s="1"/>
+      <c r="ACH1" s="1"/>
+      <c r="ACI1" s="1"/>
+      <c r="ACJ1" s="1"/>
+      <c r="ACK1" s="1"/>
+      <c r="ACL1" s="1"/>
+      <c r="ACM1" s="1"/>
+      <c r="ACN1" s="1"/>
+      <c r="ACO1" s="1"/>
+      <c r="ACP1" s="1"/>
+      <c r="ACQ1" s="1"/>
+      <c r="ACR1" s="1"/>
+      <c r="ACS1" s="1"/>
+      <c r="ACT1" s="1"/>
+      <c r="ACU1" s="1"/>
+      <c r="ACV1" s="1"/>
+      <c r="ACW1" s="1"/>
+      <c r="ACX1" s="1"/>
+      <c r="ACY1" s="1"/>
+      <c r="ACZ1" s="1"/>
+      <c r="ADA1" s="1"/>
+      <c r="ADB1" s="1"/>
+      <c r="ADC1" s="1"/>
+      <c r="ADD1" s="1"/>
+      <c r="ADE1" s="1"/>
+      <c r="ADF1" s="1"/>
+      <c r="ADG1" s="1"/>
+      <c r="ADH1" s="1"/>
+      <c r="ADI1" s="1"/>
+      <c r="ADJ1" s="1"/>
+      <c r="ADK1" s="1"/>
+      <c r="ADL1" s="1"/>
+      <c r="ADM1" s="1"/>
+      <c r="ADN1" s="1"/>
+      <c r="ADO1" s="1"/>
+      <c r="ADP1" s="1"/>
+      <c r="ADQ1" s="1"/>
+      <c r="ADR1" s="1"/>
+      <c r="ADS1" s="1"/>
+      <c r="ADT1" s="1"/>
+      <c r="ADU1" s="1"/>
+      <c r="ADV1" s="1"/>
+      <c r="ADW1" s="1"/>
+      <c r="ADX1" s="1"/>
+      <c r="ADY1" s="1"/>
+      <c r="ADZ1" s="1"/>
+      <c r="AEA1" s="1"/>
+      <c r="AEB1" s="1"/>
+      <c r="AEC1" s="1"/>
+      <c r="AED1" s="1"/>
+      <c r="AEE1" s="1"/>
+      <c r="AEF1" s="1"/>
+      <c r="AEG1" s="1"/>
+      <c r="AEH1" s="1"/>
+      <c r="AEI1" s="1"/>
+      <c r="AEJ1" s="1"/>
+      <c r="AEK1" s="1"/>
+      <c r="AEL1" s="1"/>
+      <c r="AEM1" s="1"/>
+      <c r="AEN1" s="1"/>
+      <c r="AEO1" s="1"/>
+      <c r="AEP1" s="1"/>
+      <c r="AEQ1" s="1"/>
+      <c r="AER1" s="1"/>
+      <c r="AES1" s="1"/>
+      <c r="AET1" s="1"/>
+      <c r="AEU1" s="1"/>
+      <c r="AEV1" s="1"/>
+      <c r="AEW1" s="1"/>
+      <c r="AEX1" s="1"/>
+      <c r="AEY1" s="1"/>
+      <c r="AEZ1" s="1"/>
+      <c r="AFA1" s="1"/>
+      <c r="AFB1" s="1"/>
+      <c r="AFC1" s="1"/>
+      <c r="AFD1" s="1"/>
+      <c r="AFE1" s="1"/>
+      <c r="AFF1" s="1"/>
+      <c r="AFG1" s="1"/>
+      <c r="AFH1" s="1"/>
+      <c r="AFI1" s="1"/>
+      <c r="AFJ1" s="1"/>
+      <c r="AFK1" s="1"/>
+      <c r="AFL1" s="1"/>
+      <c r="AFM1" s="1"/>
+      <c r="AFN1" s="1"/>
+      <c r="AFO1" s="1"/>
+      <c r="AFP1" s="1"/>
+      <c r="AFQ1" s="1"/>
+      <c r="AFR1" s="1"/>
+      <c r="AFS1" s="1"/>
+      <c r="AFT1" s="1"/>
+      <c r="AFU1" s="1"/>
+      <c r="AFV1" s="1"/>
+      <c r="AFW1" s="1"/>
+      <c r="AFX1" s="1"/>
+      <c r="AFY1" s="1"/>
+      <c r="AFZ1" s="1"/>
+      <c r="AGA1" s="1"/>
+      <c r="AGB1" s="1"/>
+      <c r="AGC1" s="1"/>
+      <c r="AGD1" s="1"/>
+      <c r="AGE1" s="1"/>
+      <c r="AGF1" s="1"/>
+      <c r="AGG1" s="1"/>
+      <c r="AGH1" s="1"/>
+      <c r="AGI1" s="1"/>
+      <c r="AGJ1" s="1"/>
+      <c r="AGK1" s="1"/>
+      <c r="AGL1" s="1"/>
+      <c r="AGM1" s="1"/>
+      <c r="AGN1" s="1"/>
+      <c r="AGO1" s="1"/>
+      <c r="AGP1" s="1"/>
+      <c r="AGQ1" s="1"/>
+      <c r="AGR1" s="1"/>
+      <c r="AGS1" s="1"/>
+      <c r="AGT1" s="1"/>
+      <c r="AGU1" s="1"/>
+      <c r="AGV1" s="1"/>
+      <c r="AGW1" s="1"/>
+      <c r="AGX1" s="1"/>
+      <c r="AGY1" s="1"/>
+      <c r="AGZ1" s="1"/>
+      <c r="AHA1" s="1"/>
+      <c r="AHB1" s="1"/>
+      <c r="AHC1" s="1"/>
+      <c r="AHD1" s="1"/>
+      <c r="AHE1" s="1"/>
+      <c r="AHF1" s="1"/>
+      <c r="AHG1" s="1"/>
+      <c r="AHH1" s="1"/>
+      <c r="AHI1" s="1"/>
+      <c r="AHJ1" s="1"/>
+      <c r="AHK1" s="1"/>
+      <c r="AHL1" s="1"/>
+      <c r="AHM1" s="1"/>
+      <c r="AHN1" s="1"/>
+      <c r="AHO1" s="1"/>
+      <c r="AHP1" s="1"/>
+      <c r="AHQ1" s="1"/>
+      <c r="AHR1" s="1"/>
+      <c r="AHS1" s="1"/>
+      <c r="AHT1" s="1"/>
+      <c r="AHU1" s="1"/>
+      <c r="AHV1" s="1"/>
+      <c r="AHW1" s="1"/>
+      <c r="AHX1" s="1"/>
+      <c r="AHY1" s="1"/>
+      <c r="AHZ1" s="1"/>
+      <c r="AIA1" s="1"/>
+      <c r="AIB1" s="1"/>
+      <c r="AIC1" s="1"/>
+      <c r="AID1" s="1"/>
+      <c r="AIE1" s="1"/>
+      <c r="AIF1" s="1"/>
+      <c r="AIG1" s="1"/>
+      <c r="AIH1" s="1"/>
+      <c r="AII1" s="1"/>
+      <c r="AIJ1" s="1"/>
+      <c r="AIK1" s="1"/>
+      <c r="AIL1" s="1"/>
+      <c r="AIM1" s="1"/>
+      <c r="AIN1" s="1"/>
+      <c r="AIO1" s="1"/>
+      <c r="AIP1" s="1"/>
+      <c r="AIQ1" s="1"/>
+      <c r="AIR1" s="1"/>
+      <c r="AIS1" s="1"/>
+      <c r="AIT1" s="1"/>
+      <c r="AIU1" s="1"/>
+      <c r="AIV1" s="1"/>
+      <c r="AIW1" s="1"/>
+      <c r="AIX1" s="1"/>
+      <c r="AIY1" s="1"/>
+      <c r="AIZ1" s="1"/>
+      <c r="AJA1" s="1"/>
+      <c r="AJB1" s="1"/>
+      <c r="AJC1" s="1"/>
+      <c r="AJD1" s="1"/>
+      <c r="AJE1" s="1"/>
+      <c r="AJF1" s="1"/>
+      <c r="AJG1" s="1"/>
+      <c r="AJH1" s="1"/>
+      <c r="AJI1" s="1"/>
+      <c r="AJJ1" s="1"/>
+      <c r="AJK1" s="1"/>
+      <c r="AJL1" s="1"/>
+      <c r="AJM1" s="1"/>
+      <c r="AJN1" s="1"/>
+      <c r="AJO1" s="1"/>
+      <c r="AJP1" s="1"/>
+      <c r="AJQ1" s="1"/>
+      <c r="AJR1" s="1"/>
+      <c r="AJS1" s="1"/>
+      <c r="AJT1" s="1"/>
+      <c r="AJU1" s="1"/>
+      <c r="AJV1" s="1"/>
+      <c r="AJW1" s="1"/>
+      <c r="AJX1" s="1"/>
+      <c r="AJY1" s="1"/>
+      <c r="AJZ1" s="1"/>
+      <c r="AKA1" s="1"/>
+      <c r="AKB1" s="1"/>
+      <c r="AKC1" s="1"/>
+      <c r="AKD1" s="1"/>
+      <c r="AKE1" s="1"/>
+      <c r="AKF1" s="1"/>
+      <c r="AKG1" s="1"/>
+      <c r="AKH1" s="1"/>
+      <c r="AKI1" s="1"/>
+      <c r="AKJ1" s="1"/>
+      <c r="AKK1" s="1"/>
+      <c r="AKL1" s="1"/>
+      <c r="AKM1" s="1"/>
+      <c r="AKN1" s="1"/>
+      <c r="AKO1" s="1"/>
+      <c r="AKP1" s="1"/>
+      <c r="AKQ1" s="1"/>
+      <c r="AKR1" s="1"/>
+      <c r="AKS1" s="1"/>
+      <c r="AKT1" s="1"/>
+      <c r="AKU1" s="1"/>
+      <c r="AKV1" s="1"/>
+      <c r="AKW1" s="1"/>
+      <c r="AKX1" s="1"/>
+      <c r="AKY1" s="1"/>
+      <c r="AKZ1" s="1"/>
+      <c r="ALA1" s="1"/>
+      <c r="ALB1" s="1"/>
+      <c r="ALC1" s="1"/>
+      <c r="ALD1" s="1"/>
+      <c r="ALE1" s="1"/>
+      <c r="ALF1" s="1"/>
+      <c r="ALG1" s="1"/>
+      <c r="ALH1" s="1"/>
+      <c r="ALI1" s="1"/>
+      <c r="ALJ1" s="1"/>
+      <c r="ALK1" s="1"/>
+      <c r="ALL1" s="1"/>
+      <c r="ALM1" s="1"/>
+      <c r="ALN1" s="1"/>
+      <c r="ALO1" s="1"/>
+      <c r="ALP1" s="1"/>
+      <c r="ALQ1" s="1"/>
+      <c r="ALR1" s="1"/>
+      <c r="ALS1" s="1"/>
+      <c r="ALT1" s="1"/>
+      <c r="ALU1" s="1"/>
+      <c r="ALV1" s="1"/>
+      <c r="ALW1" s="1"/>
+      <c r="ALX1" s="1"/>
+      <c r="ALY1" s="1"/>
+      <c r="ALZ1" s="1"/>
+      <c r="AMA1" s="1"/>
+      <c r="AMB1" s="1"/>
+      <c r="AMC1" s="1"/>
+      <c r="AMD1" s="1"/>
+      <c r="AME1" s="1"/>
+      <c r="AMF1" s="1"/>
+      <c r="AMG1" s="1"/>
+      <c r="AMH1" s="1"/>
+      <c r="AMI1" s="1"/>
+      <c r="AMJ1" s="1"/>
+      <c r="AMK1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:1025" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
+      <c r="DA2" s="1"/>
+      <c r="DB2" s="1"/>
+      <c r="DC2" s="1"/>
+      <c r="DD2" s="1"/>
+      <c r="DE2" s="1"/>
+      <c r="DF2" s="1"/>
+      <c r="DG2" s="1"/>
+      <c r="DH2" s="1"/>
+      <c r="DI2" s="1"/>
+      <c r="DJ2" s="1"/>
+      <c r="DK2" s="1"/>
+      <c r="DL2" s="1"/>
+      <c r="DM2" s="1"/>
+      <c r="DN2" s="1"/>
+      <c r="DO2" s="1"/>
+      <c r="DP2" s="1"/>
+      <c r="DQ2" s="1"/>
+      <c r="DR2" s="1"/>
+      <c r="DS2" s="1"/>
+      <c r="DT2" s="1"/>
+      <c r="DU2" s="1"/>
+      <c r="DV2" s="1"/>
+      <c r="DW2" s="1"/>
+      <c r="DX2" s="1"/>
+      <c r="DY2" s="1"/>
+      <c r="DZ2" s="1"/>
+      <c r="EA2" s="1"/>
+      <c r="EB2" s="1"/>
+      <c r="EC2" s="1"/>
+      <c r="ED2" s="1"/>
+      <c r="EE2" s="1"/>
+      <c r="EF2" s="1"/>
+      <c r="EG2" s="1"/>
+      <c r="EH2" s="1"/>
+      <c r="EI2" s="1"/>
+      <c r="EJ2" s="1"/>
+      <c r="EK2" s="1"/>
+      <c r="EL2" s="1"/>
+      <c r="EM2" s="1"/>
+      <c r="EN2" s="1"/>
+      <c r="EO2" s="1"/>
+      <c r="EP2" s="1"/>
+      <c r="EQ2" s="1"/>
+      <c r="ER2" s="1"/>
+      <c r="ES2" s="1"/>
+      <c r="ET2" s="1"/>
+      <c r="EU2" s="1"/>
+      <c r="EV2" s="1"/>
+      <c r="EW2" s="1"/>
+      <c r="EX2" s="1"/>
+      <c r="EY2" s="1"/>
+      <c r="EZ2" s="1"/>
+      <c r="FA2" s="1"/>
+      <c r="FB2" s="1"/>
+      <c r="FC2" s="1"/>
+      <c r="FD2" s="1"/>
+      <c r="FE2" s="1"/>
+      <c r="FF2" s="1"/>
+      <c r="FG2" s="1"/>
+      <c r="FH2" s="1"/>
+      <c r="FI2" s="1"/>
+      <c r="FJ2" s="1"/>
+      <c r="FK2" s="1"/>
+      <c r="FL2" s="1"/>
+      <c r="FM2" s="1"/>
+      <c r="FN2" s="1"/>
+      <c r="FO2" s="1"/>
+      <c r="FP2" s="1"/>
+      <c r="FQ2" s="1"/>
+      <c r="FR2" s="1"/>
+      <c r="FS2" s="1"/>
+      <c r="FT2" s="1"/>
+      <c r="FU2" s="1"/>
+      <c r="FV2" s="1"/>
+      <c r="FW2" s="1"/>
+      <c r="FX2" s="1"/>
+      <c r="FY2" s="1"/>
+      <c r="FZ2" s="1"/>
+      <c r="GA2" s="1"/>
+      <c r="GB2" s="1"/>
+      <c r="GC2" s="1"/>
+      <c r="GD2" s="1"/>
+      <c r="GE2" s="1"/>
+      <c r="GF2" s="1"/>
+      <c r="GG2" s="1"/>
+      <c r="GH2" s="1"/>
+      <c r="GI2" s="1"/>
+      <c r="GJ2" s="1"/>
+      <c r="GK2" s="1"/>
+      <c r="GL2" s="1"/>
+      <c r="GM2" s="1"/>
+      <c r="GN2" s="1"/>
+      <c r="GO2" s="1"/>
+      <c r="GP2" s="1"/>
+      <c r="GQ2" s="1"/>
+      <c r="GR2" s="1"/>
+      <c r="GS2" s="1"/>
+      <c r="GT2" s="1"/>
+      <c r="GU2" s="1"/>
+      <c r="GV2" s="1"/>
+      <c r="GW2" s="1"/>
+      <c r="GX2" s="1"/>
+      <c r="GY2" s="1"/>
+      <c r="GZ2" s="1"/>
+      <c r="HA2" s="1"/>
+      <c r="HB2" s="1"/>
+      <c r="HC2" s="1"/>
+      <c r="HD2" s="1"/>
+      <c r="HE2" s="1"/>
+      <c r="HF2" s="1"/>
+      <c r="HG2" s="1"/>
+      <c r="HH2" s="1"/>
+      <c r="HI2" s="1"/>
+      <c r="HJ2" s="1"/>
+      <c r="HK2" s="1"/>
+      <c r="HL2" s="1"/>
+      <c r="HM2" s="1"/>
+      <c r="HN2" s="1"/>
+      <c r="HO2" s="1"/>
+      <c r="HP2" s="1"/>
+      <c r="HQ2" s="1"/>
+      <c r="HR2" s="1"/>
+      <c r="HS2" s="1"/>
+      <c r="HT2" s="1"/>
+      <c r="HU2" s="1"/>
+      <c r="HV2" s="1"/>
+      <c r="HW2" s="1"/>
+      <c r="HX2" s="1"/>
+      <c r="HY2" s="1"/>
+      <c r="HZ2" s="1"/>
+      <c r="IA2" s="1"/>
+      <c r="IB2" s="1"/>
+      <c r="IC2" s="1"/>
+      <c r="ID2" s="1"/>
+      <c r="IE2" s="1"/>
+      <c r="IF2" s="1"/>
+      <c r="IG2" s="1"/>
+      <c r="IH2" s="1"/>
+      <c r="II2" s="1"/>
+      <c r="IJ2" s="1"/>
+      <c r="IK2" s="1"/>
+      <c r="IL2" s="1"/>
+      <c r="IM2" s="1"/>
+      <c r="IN2" s="1"/>
+      <c r="IO2" s="1"/>
+      <c r="IP2" s="1"/>
+      <c r="IQ2" s="1"/>
+      <c r="IR2" s="1"/>
+      <c r="IS2" s="1"/>
+      <c r="IT2" s="1"/>
+      <c r="IU2" s="1"/>
+      <c r="IV2" s="1"/>
+      <c r="IW2" s="1"/>
+      <c r="IX2" s="1"/>
+      <c r="IY2" s="1"/>
+      <c r="IZ2" s="1"/>
+      <c r="JA2" s="1"/>
+      <c r="JB2" s="1"/>
+      <c r="JC2" s="1"/>
+      <c r="JD2" s="1"/>
+      <c r="JE2" s="1"/>
+      <c r="JF2" s="1"/>
+      <c r="JG2" s="1"/>
+      <c r="JH2" s="1"/>
+      <c r="JI2" s="1"/>
+      <c r="JJ2" s="1"/>
+      <c r="JK2" s="1"/>
+      <c r="JL2" s="1"/>
+      <c r="JM2" s="1"/>
+      <c r="JN2" s="1"/>
+      <c r="JO2" s="1"/>
+      <c r="JP2" s="1"/>
+      <c r="JQ2" s="1"/>
+      <c r="JR2" s="1"/>
+      <c r="JS2" s="1"/>
+      <c r="JT2" s="1"/>
+      <c r="JU2" s="1"/>
+      <c r="JV2" s="1"/>
+      <c r="JW2" s="1"/>
+      <c r="JX2" s="1"/>
+      <c r="JY2" s="1"/>
+      <c r="JZ2" s="1"/>
+      <c r="KA2" s="1"/>
+      <c r="KB2" s="1"/>
+      <c r="KC2" s="1"/>
+      <c r="KD2" s="1"/>
+      <c r="KE2" s="1"/>
+      <c r="KF2" s="1"/>
+      <c r="KG2" s="1"/>
+      <c r="KH2" s="1"/>
+      <c r="KI2" s="1"/>
+      <c r="KJ2" s="1"/>
+      <c r="KK2" s="1"/>
+      <c r="KL2" s="1"/>
+      <c r="KM2" s="1"/>
+      <c r="KN2" s="1"/>
+      <c r="KO2" s="1"/>
+      <c r="KP2" s="1"/>
+      <c r="KQ2" s="1"/>
+      <c r="KR2" s="1"/>
+      <c r="KS2" s="1"/>
+      <c r="KT2" s="1"/>
+      <c r="KU2" s="1"/>
+      <c r="KV2" s="1"/>
+      <c r="KW2" s="1"/>
+      <c r="KX2" s="1"/>
+      <c r="KY2" s="1"/>
+      <c r="KZ2" s="1"/>
+      <c r="LA2" s="1"/>
+      <c r="LB2" s="1"/>
+      <c r="LC2" s="1"/>
+      <c r="LD2" s="1"/>
+      <c r="LE2" s="1"/>
+      <c r="LF2" s="1"/>
+      <c r="LG2" s="1"/>
+      <c r="LH2" s="1"/>
+      <c r="LI2" s="1"/>
+      <c r="LJ2" s="1"/>
+      <c r="LK2" s="1"/>
+      <c r="LL2" s="1"/>
+      <c r="LM2" s="1"/>
+      <c r="LN2" s="1"/>
+      <c r="LO2" s="1"/>
+      <c r="LP2" s="1"/>
+      <c r="LQ2" s="1"/>
+      <c r="LR2" s="1"/>
+      <c r="LS2" s="1"/>
+      <c r="LT2" s="1"/>
+      <c r="LU2" s="1"/>
+      <c r="LV2" s="1"/>
+      <c r="LW2" s="1"/>
+      <c r="LX2" s="1"/>
+      <c r="LY2" s="1"/>
+      <c r="LZ2" s="1"/>
+      <c r="MA2" s="1"/>
+      <c r="MB2" s="1"/>
+      <c r="MC2" s="1"/>
+      <c r="MD2" s="1"/>
+      <c r="ME2" s="1"/>
+      <c r="MF2" s="1"/>
+      <c r="MG2" s="1"/>
+      <c r="MH2" s="1"/>
+      <c r="MI2" s="1"/>
+      <c r="MJ2" s="1"/>
+      <c r="MK2" s="1"/>
+      <c r="ML2" s="1"/>
+      <c r="MM2" s="1"/>
+      <c r="MN2" s="1"/>
+      <c r="MO2" s="1"/>
+      <c r="MP2" s="1"/>
+      <c r="MQ2" s="1"/>
+      <c r="MR2" s="1"/>
+      <c r="MS2" s="1"/>
+      <c r="MT2" s="1"/>
+      <c r="MU2" s="1"/>
+      <c r="MV2" s="1"/>
+      <c r="MW2" s="1"/>
+      <c r="MX2" s="1"/>
+      <c r="MY2" s="1"/>
+      <c r="MZ2" s="1"/>
+      <c r="NA2" s="1"/>
+      <c r="NB2" s="1"/>
+      <c r="NC2" s="1"/>
+      <c r="ND2" s="1"/>
+      <c r="NE2" s="1"/>
+      <c r="NF2" s="1"/>
+      <c r="NG2" s="1"/>
+      <c r="NH2" s="1"/>
+      <c r="NI2" s="1"/>
+      <c r="NJ2" s="1"/>
+      <c r="NK2" s="1"/>
+      <c r="NL2" s="1"/>
+      <c r="NM2" s="1"/>
+      <c r="NN2" s="1"/>
+      <c r="NO2" s="1"/>
+      <c r="NP2" s="1"/>
+      <c r="NQ2" s="1"/>
+      <c r="NR2" s="1"/>
+      <c r="NS2" s="1"/>
+      <c r="NT2" s="1"/>
+      <c r="NU2" s="1"/>
+      <c r="NV2" s="1"/>
+      <c r="NW2" s="1"/>
+      <c r="NX2" s="1"/>
+      <c r="NY2" s="1"/>
+      <c r="NZ2" s="1"/>
+      <c r="OA2" s="1"/>
+      <c r="OB2" s="1"/>
+      <c r="OC2" s="1"/>
+      <c r="OD2" s="1"/>
+      <c r="OE2" s="1"/>
+      <c r="OF2" s="1"/>
+      <c r="OG2" s="1"/>
+      <c r="OH2" s="1"/>
+      <c r="OI2" s="1"/>
+      <c r="OJ2" s="1"/>
+      <c r="OK2" s="1"/>
+      <c r="OL2" s="1"/>
+      <c r="OM2" s="1"/>
+      <c r="ON2" s="1"/>
+      <c r="OO2" s="1"/>
+      <c r="OP2" s="1"/>
+      <c r="OQ2" s="1"/>
+      <c r="OR2" s="1"/>
+      <c r="OS2" s="1"/>
+      <c r="OT2" s="1"/>
+      <c r="OU2" s="1"/>
+      <c r="OV2" s="1"/>
+      <c r="OW2" s="1"/>
+      <c r="OX2" s="1"/>
+      <c r="OY2" s="1"/>
+      <c r="OZ2" s="1"/>
+      <c r="PA2" s="1"/>
+      <c r="PB2" s="1"/>
+      <c r="PC2" s="1"/>
+      <c r="PD2" s="1"/>
+      <c r="PE2" s="1"/>
+      <c r="PF2" s="1"/>
+      <c r="PG2" s="1"/>
+      <c r="PH2" s="1"/>
+      <c r="PI2" s="1"/>
+      <c r="PJ2" s="1"/>
+      <c r="PK2" s="1"/>
+      <c r="PL2" s="1"/>
+      <c r="PM2" s="1"/>
+      <c r="PN2" s="1"/>
+      <c r="PO2" s="1"/>
+      <c r="PP2" s="1"/>
+      <c r="PQ2" s="1"/>
+      <c r="PR2" s="1"/>
+      <c r="PS2" s="1"/>
+      <c r="PT2" s="1"/>
+      <c r="PU2" s="1"/>
+      <c r="PV2" s="1"/>
+      <c r="PW2" s="1"/>
+      <c r="PX2" s="1"/>
+      <c r="PY2" s="1"/>
+      <c r="PZ2" s="1"/>
+      <c r="QA2" s="1"/>
+      <c r="QB2" s="1"/>
+      <c r="QC2" s="1"/>
+      <c r="QD2" s="1"/>
+      <c r="QE2" s="1"/>
+      <c r="QF2" s="1"/>
+      <c r="QG2" s="1"/>
+      <c r="QH2" s="1"/>
+      <c r="QI2" s="1"/>
+      <c r="QJ2" s="1"/>
+      <c r="QK2" s="1"/>
+      <c r="QL2" s="1"/>
+      <c r="QM2" s="1"/>
+      <c r="QN2" s="1"/>
+      <c r="QO2" s="1"/>
+      <c r="QP2" s="1"/>
+      <c r="QQ2" s="1"/>
+      <c r="QR2" s="1"/>
+      <c r="QS2" s="1"/>
+      <c r="QT2" s="1"/>
+      <c r="QU2" s="1"/>
+      <c r="QV2" s="1"/>
+      <c r="QW2" s="1"/>
+      <c r="QX2" s="1"/>
+      <c r="QY2" s="1"/>
+      <c r="QZ2" s="1"/>
+      <c r="RA2" s="1"/>
+      <c r="RB2" s="1"/>
+      <c r="RC2" s="1"/>
+      <c r="RD2" s="1"/>
+      <c r="RE2" s="1"/>
+      <c r="RF2" s="1"/>
+      <c r="RG2" s="1"/>
+      <c r="RH2" s="1"/>
+      <c r="RI2" s="1"/>
+      <c r="RJ2" s="1"/>
+      <c r="RK2" s="1"/>
+      <c r="RL2" s="1"/>
+      <c r="RM2" s="1"/>
+      <c r="RN2" s="1"/>
+      <c r="RO2" s="1"/>
+      <c r="RP2" s="1"/>
+      <c r="RQ2" s="1"/>
+      <c r="RR2" s="1"/>
+      <c r="RS2" s="1"/>
+      <c r="RT2" s="1"/>
+      <c r="RU2" s="1"/>
+      <c r="RV2" s="1"/>
+      <c r="RW2" s="1"/>
+      <c r="RX2" s="1"/>
+      <c r="RY2" s="1"/>
+      <c r="RZ2" s="1"/>
+      <c r="SA2" s="1"/>
+      <c r="SB2" s="1"/>
+      <c r="SC2" s="1"/>
+      <c r="SD2" s="1"/>
+      <c r="SE2" s="1"/>
+      <c r="SF2" s="1"/>
+      <c r="SG2" s="1"/>
+      <c r="SH2" s="1"/>
+      <c r="SI2" s="1"/>
+      <c r="SJ2" s="1"/>
+      <c r="SK2" s="1"/>
+      <c r="SL2" s="1"/>
+      <c r="SM2" s="1"/>
+      <c r="SN2" s="1"/>
+      <c r="SO2" s="1"/>
+      <c r="SP2" s="1"/>
+      <c r="SQ2" s="1"/>
+      <c r="SR2" s="1"/>
+      <c r="SS2" s="1"/>
+      <c r="ST2" s="1"/>
+      <c r="SU2" s="1"/>
+      <c r="SV2" s="1"/>
+      <c r="SW2" s="1"/>
+      <c r="SX2" s="1"/>
+      <c r="SY2" s="1"/>
+      <c r="SZ2" s="1"/>
+      <c r="TA2" s="1"/>
+      <c r="TB2" s="1"/>
+      <c r="TC2" s="1"/>
+      <c r="TD2" s="1"/>
+      <c r="TE2" s="1"/>
+      <c r="TF2" s="1"/>
+      <c r="TG2" s="1"/>
+      <c r="TH2" s="1"/>
+      <c r="TI2" s="1"/>
+      <c r="TJ2" s="1"/>
+      <c r="TK2" s="1"/>
+      <c r="TL2" s="1"/>
+      <c r="TM2" s="1"/>
+      <c r="TN2" s="1"/>
+      <c r="TO2" s="1"/>
+      <c r="TP2" s="1"/>
+      <c r="TQ2" s="1"/>
+      <c r="TR2" s="1"/>
+      <c r="TS2" s="1"/>
+      <c r="TT2" s="1"/>
+      <c r="TU2" s="1"/>
+      <c r="TV2" s="1"/>
+      <c r="TW2" s="1"/>
+      <c r="TX2" s="1"/>
+      <c r="TY2" s="1"/>
+      <c r="TZ2" s="1"/>
+      <c r="UA2" s="1"/>
+      <c r="UB2" s="1"/>
+      <c r="UC2" s="1"/>
+      <c r="UD2" s="1"/>
+      <c r="UE2" s="1"/>
+      <c r="UF2" s="1"/>
+      <c r="UG2" s="1"/>
+      <c r="UH2" s="1"/>
+      <c r="UI2" s="1"/>
+      <c r="UJ2" s="1"/>
+      <c r="UK2" s="1"/>
+      <c r="UL2" s="1"/>
+      <c r="UM2" s="1"/>
+      <c r="UN2" s="1"/>
+      <c r="UO2" s="1"/>
+      <c r="UP2" s="1"/>
+      <c r="UQ2" s="1"/>
+      <c r="UR2" s="1"/>
+      <c r="US2" s="1"/>
+      <c r="UT2" s="1"/>
+      <c r="UU2" s="1"/>
+      <c r="UV2" s="1"/>
+      <c r="UW2" s="1"/>
+      <c r="UX2" s="1"/>
+      <c r="UY2" s="1"/>
+      <c r="UZ2" s="1"/>
+      <c r="VA2" s="1"/>
+      <c r="VB2" s="1"/>
+      <c r="VC2" s="1"/>
+      <c r="VD2" s="1"/>
+      <c r="VE2" s="1"/>
+      <c r="VF2" s="1"/>
+      <c r="VG2" s="1"/>
+      <c r="VH2" s="1"/>
+      <c r="VI2" s="1"/>
+      <c r="VJ2" s="1"/>
+      <c r="VK2" s="1"/>
+      <c r="VL2" s="1"/>
+      <c r="VM2" s="1"/>
+      <c r="VN2" s="1"/>
+      <c r="VO2" s="1"/>
+      <c r="VP2" s="1"/>
+      <c r="VQ2" s="1"/>
+      <c r="VR2" s="1"/>
+      <c r="VS2" s="1"/>
+      <c r="VT2" s="1"/>
+      <c r="VU2" s="1"/>
+      <c r="VV2" s="1"/>
+      <c r="VW2" s="1"/>
+      <c r="VX2" s="1"/>
+      <c r="VY2" s="1"/>
+      <c r="VZ2" s="1"/>
+      <c r="WA2" s="1"/>
+      <c r="WB2" s="1"/>
+      <c r="WC2" s="1"/>
+      <c r="WD2" s="1"/>
+      <c r="WE2" s="1"/>
+      <c r="WF2" s="1"/>
+      <c r="WG2" s="1"/>
+      <c r="WH2" s="1"/>
+      <c r="WI2" s="1"/>
+      <c r="WJ2" s="1"/>
+      <c r="WK2" s="1"/>
+      <c r="WL2" s="1"/>
+      <c r="WM2" s="1"/>
+      <c r="WN2" s="1"/>
+      <c r="WO2" s="1"/>
+      <c r="WP2" s="1"/>
+      <c r="WQ2" s="1"/>
+      <c r="WR2" s="1"/>
+      <c r="WS2" s="1"/>
+      <c r="WT2" s="1"/>
+      <c r="WU2" s="1"/>
+      <c r="WV2" s="1"/>
+      <c r="WW2" s="1"/>
+      <c r="WX2" s="1"/>
+      <c r="WY2" s="1"/>
+      <c r="WZ2" s="1"/>
+      <c r="XA2" s="1"/>
+      <c r="XB2" s="1"/>
+      <c r="XC2" s="1"/>
+      <c r="XD2" s="1"/>
+      <c r="XE2" s="1"/>
+      <c r="XF2" s="1"/>
+      <c r="XG2" s="1"/>
+      <c r="XH2" s="1"/>
+      <c r="XI2" s="1"/>
+      <c r="XJ2" s="1"/>
+      <c r="XK2" s="1"/>
+      <c r="XL2" s="1"/>
+      <c r="XM2" s="1"/>
+      <c r="XN2" s="1"/>
+      <c r="XO2" s="1"/>
+      <c r="XP2" s="1"/>
+      <c r="XQ2" s="1"/>
+      <c r="XR2" s="1"/>
+      <c r="XS2" s="1"/>
+      <c r="XT2" s="1"/>
+      <c r="XU2" s="1"/>
+      <c r="XV2" s="1"/>
+      <c r="XW2" s="1"/>
+      <c r="XX2" s="1"/>
+      <c r="XY2" s="1"/>
+      <c r="XZ2" s="1"/>
+      <c r="YA2" s="1"/>
+      <c r="YB2" s="1"/>
+      <c r="YC2" s="1"/>
+      <c r="YD2" s="1"/>
+      <c r="YE2" s="1"/>
+      <c r="YF2" s="1"/>
+      <c r="YG2" s="1"/>
+      <c r="YH2" s="1"/>
+      <c r="YI2" s="1"/>
+      <c r="YJ2" s="1"/>
+      <c r="YK2" s="1"/>
+      <c r="YL2" s="1"/>
+      <c r="YM2" s="1"/>
+      <c r="YN2" s="1"/>
+      <c r="YO2" s="1"/>
+      <c r="YP2" s="1"/>
+      <c r="YQ2" s="1"/>
+      <c r="YR2" s="1"/>
+      <c r="YS2" s="1"/>
+      <c r="YT2" s="1"/>
+      <c r="YU2" s="1"/>
+      <c r="YV2" s="1"/>
+      <c r="YW2" s="1"/>
+      <c r="YX2" s="1"/>
+      <c r="YY2" s="1"/>
+      <c r="YZ2" s="1"/>
+      <c r="ZA2" s="1"/>
+      <c r="ZB2" s="1"/>
+      <c r="ZC2" s="1"/>
+      <c r="ZD2" s="1"/>
+      <c r="ZE2" s="1"/>
+      <c r="ZF2" s="1"/>
+      <c r="ZG2" s="1"/>
+      <c r="ZH2" s="1"/>
+      <c r="ZI2" s="1"/>
+      <c r="ZJ2" s="1"/>
+      <c r="ZK2" s="1"/>
+      <c r="ZL2" s="1"/>
+      <c r="ZM2" s="1"/>
+      <c r="ZN2" s="1"/>
+      <c r="ZO2" s="1"/>
+      <c r="ZP2" s="1"/>
+      <c r="ZQ2" s="1"/>
+      <c r="ZR2" s="1"/>
+      <c r="ZS2" s="1"/>
+      <c r="ZT2" s="1"/>
+      <c r="ZU2" s="1"/>
+      <c r="ZV2" s="1"/>
+      <c r="ZW2" s="1"/>
+      <c r="ZX2" s="1"/>
+      <c r="ZY2" s="1"/>
+      <c r="ZZ2" s="1"/>
+      <c r="AAA2" s="1"/>
+      <c r="AAB2" s="1"/>
+      <c r="AAC2" s="1"/>
+      <c r="AAD2" s="1"/>
+      <c r="AAE2" s="1"/>
+      <c r="AAF2" s="1"/>
+      <c r="AAG2" s="1"/>
+      <c r="AAH2" s="1"/>
+      <c r="AAI2" s="1"/>
+      <c r="AAJ2" s="1"/>
+      <c r="AAK2" s="1"/>
+      <c r="AAL2" s="1"/>
+      <c r="AAM2" s="1"/>
+      <c r="AAN2" s="1"/>
+      <c r="AAO2" s="1"/>
+      <c r="AAP2" s="1"/>
+      <c r="AAQ2" s="1"/>
+      <c r="AAR2" s="1"/>
+      <c r="AAS2" s="1"/>
+      <c r="AAT2" s="1"/>
+      <c r="AAU2" s="1"/>
+      <c r="AAV2" s="1"/>
+      <c r="AAW2" s="1"/>
+      <c r="AAX2" s="1"/>
+      <c r="AAY2" s="1"/>
+      <c r="AAZ2" s="1"/>
+      <c r="ABA2" s="1"/>
+      <c r="ABB2" s="1"/>
+      <c r="ABC2" s="1"/>
+      <c r="ABD2" s="1"/>
+      <c r="ABE2" s="1"/>
+      <c r="ABF2" s="1"/>
+      <c r="ABG2" s="1"/>
+      <c r="ABH2" s="1"/>
+      <c r="ABI2" s="1"/>
+      <c r="ABJ2" s="1"/>
+      <c r="ABK2" s="1"/>
+      <c r="ABL2" s="1"/>
+      <c r="ABM2" s="1"/>
+      <c r="ABN2" s="1"/>
+      <c r="ABO2" s="1"/>
+      <c r="ABP2" s="1"/>
+      <c r="ABQ2" s="1"/>
+      <c r="ABR2" s="1"/>
+      <c r="ABS2" s="1"/>
+      <c r="ABT2" s="1"/>
+      <c r="ABU2" s="1"/>
+      <c r="ABV2" s="1"/>
+      <c r="ABW2" s="1"/>
+      <c r="ABX2" s="1"/>
+      <c r="ABY2" s="1"/>
+      <c r="ABZ2" s="1"/>
+      <c r="ACA2" s="1"/>
+      <c r="ACB2" s="1"/>
+      <c r="ACC2" s="1"/>
+      <c r="ACD2" s="1"/>
+      <c r="ACE2" s="1"/>
+      <c r="ACF2" s="1"/>
+      <c r="ACG2" s="1"/>
+      <c r="ACH2" s="1"/>
+      <c r="ACI2" s="1"/>
+      <c r="ACJ2" s="1"/>
+      <c r="ACK2" s="1"/>
+      <c r="ACL2" s="1"/>
+      <c r="ACM2" s="1"/>
+      <c r="ACN2" s="1"/>
+      <c r="ACO2" s="1"/>
+      <c r="ACP2" s="1"/>
+      <c r="ACQ2" s="1"/>
+      <c r="ACR2" s="1"/>
+      <c r="ACS2" s="1"/>
+      <c r="ACT2" s="1"/>
+      <c r="ACU2" s="1"/>
+      <c r="ACV2" s="1"/>
+      <c r="ACW2" s="1"/>
+      <c r="ACX2" s="1"/>
+      <c r="ACY2" s="1"/>
+      <c r="ACZ2" s="1"/>
+      <c r="ADA2" s="1"/>
+      <c r="ADB2" s="1"/>
+      <c r="ADC2" s="1"/>
+      <c r="ADD2" s="1"/>
+      <c r="ADE2" s="1"/>
+      <c r="ADF2" s="1"/>
+      <c r="ADG2" s="1"/>
+      <c r="ADH2" s="1"/>
+      <c r="ADI2" s="1"/>
+      <c r="ADJ2" s="1"/>
+      <c r="ADK2" s="1"/>
+      <c r="ADL2" s="1"/>
+      <c r="ADM2" s="1"/>
+      <c r="ADN2" s="1"/>
+      <c r="ADO2" s="1"/>
+      <c r="ADP2" s="1"/>
+      <c r="ADQ2" s="1"/>
+      <c r="ADR2" s="1"/>
+      <c r="ADS2" s="1"/>
+      <c r="ADT2" s="1"/>
+      <c r="ADU2" s="1"/>
+      <c r="ADV2" s="1"/>
+      <c r="ADW2" s="1"/>
+      <c r="ADX2" s="1"/>
+      <c r="ADY2" s="1"/>
+      <c r="ADZ2" s="1"/>
+      <c r="AEA2" s="1"/>
+      <c r="AEB2" s="1"/>
+      <c r="AEC2" s="1"/>
+      <c r="AED2" s="1"/>
+      <c r="AEE2" s="1"/>
+      <c r="AEF2" s="1"/>
+      <c r="AEG2" s="1"/>
+      <c r="AEH2" s="1"/>
+      <c r="AEI2" s="1"/>
+      <c r="AEJ2" s="1"/>
+      <c r="AEK2" s="1"/>
+      <c r="AEL2" s="1"/>
+      <c r="AEM2" s="1"/>
+      <c r="AEN2" s="1"/>
+      <c r="AEO2" s="1"/>
+      <c r="AEP2" s="1"/>
+      <c r="AEQ2" s="1"/>
+      <c r="AER2" s="1"/>
+      <c r="AES2" s="1"/>
+      <c r="AET2" s="1"/>
+      <c r="AEU2" s="1"/>
+      <c r="AEV2" s="1"/>
+      <c r="AEW2" s="1"/>
+      <c r="AEX2" s="1"/>
+      <c r="AEY2" s="1"/>
+      <c r="AEZ2" s="1"/>
+      <c r="AFA2" s="1"/>
+      <c r="AFB2" s="1"/>
+      <c r="AFC2" s="1"/>
+      <c r="AFD2" s="1"/>
+      <c r="AFE2" s="1"/>
+      <c r="AFF2" s="1"/>
+      <c r="AFG2" s="1"/>
+      <c r="AFH2" s="1"/>
+      <c r="AFI2" s="1"/>
+      <c r="AFJ2" s="1"/>
+      <c r="AFK2" s="1"/>
+      <c r="AFL2" s="1"/>
+      <c r="AFM2" s="1"/>
+      <c r="AFN2" s="1"/>
+      <c r="AFO2" s="1"/>
+      <c r="AFP2" s="1"/>
+      <c r="AFQ2" s="1"/>
+      <c r="AFR2" s="1"/>
+      <c r="AFS2" s="1"/>
+      <c r="AFT2" s="1"/>
+      <c r="AFU2" s="1"/>
+      <c r="AFV2" s="1"/>
+      <c r="AFW2" s="1"/>
+      <c r="AFX2" s="1"/>
+      <c r="AFY2" s="1"/>
+      <c r="AFZ2" s="1"/>
+      <c r="AGA2" s="1"/>
+      <c r="AGB2" s="1"/>
+      <c r="AGC2" s="1"/>
+      <c r="AGD2" s="1"/>
+      <c r="AGE2" s="1"/>
+      <c r="AGF2" s="1"/>
+      <c r="AGG2" s="1"/>
+      <c r="AGH2" s="1"/>
+      <c r="AGI2" s="1"/>
+      <c r="AGJ2" s="1"/>
+      <c r="AGK2" s="1"/>
+      <c r="AGL2" s="1"/>
+      <c r="AGM2" s="1"/>
+      <c r="AGN2" s="1"/>
+      <c r="AGO2" s="1"/>
+      <c r="AGP2" s="1"/>
+      <c r="AGQ2" s="1"/>
+      <c r="AGR2" s="1"/>
+      <c r="AGS2" s="1"/>
+      <c r="AGT2" s="1"/>
+      <c r="AGU2" s="1"/>
+      <c r="AGV2" s="1"/>
+      <c r="AGW2" s="1"/>
+      <c r="AGX2" s="1"/>
+      <c r="AGY2" s="1"/>
+      <c r="AGZ2" s="1"/>
+      <c r="AHA2" s="1"/>
+      <c r="AHB2" s="1"/>
+      <c r="AHC2" s="1"/>
+      <c r="AHD2" s="1"/>
+      <c r="AHE2" s="1"/>
+      <c r="AHF2" s="1"/>
+      <c r="AHG2" s="1"/>
+      <c r="AHH2" s="1"/>
+      <c r="AHI2" s="1"/>
+      <c r="AHJ2" s="1"/>
+      <c r="AHK2" s="1"/>
+      <c r="AHL2" s="1"/>
+      <c r="AHM2" s="1"/>
+      <c r="AHN2" s="1"/>
+      <c r="AHO2" s="1"/>
+      <c r="AHP2" s="1"/>
+      <c r="AHQ2" s="1"/>
+      <c r="AHR2" s="1"/>
+      <c r="AHS2" s="1"/>
+      <c r="AHT2" s="1"/>
+      <c r="AHU2" s="1"/>
+      <c r="AHV2" s="1"/>
+      <c r="AHW2" s="1"/>
+      <c r="AHX2" s="1"/>
+      <c r="AHY2" s="1"/>
+      <c r="AHZ2" s="1"/>
+      <c r="AIA2" s="1"/>
+      <c r="AIB2" s="1"/>
+      <c r="AIC2" s="1"/>
+      <c r="AID2" s="1"/>
+      <c r="AIE2" s="1"/>
+      <c r="AIF2" s="1"/>
+      <c r="AIG2" s="1"/>
+      <c r="AIH2" s="1"/>
+      <c r="AII2" s="1"/>
+      <c r="AIJ2" s="1"/>
+      <c r="AIK2" s="1"/>
+      <c r="AIL2" s="1"/>
+      <c r="AIM2" s="1"/>
+      <c r="AIN2" s="1"/>
+      <c r="AIO2" s="1"/>
+      <c r="AIP2" s="1"/>
+      <c r="AIQ2" s="1"/>
+      <c r="AIR2" s="1"/>
+      <c r="AIS2" s="1"/>
+      <c r="AIT2" s="1"/>
+      <c r="AIU2" s="1"/>
+      <c r="AIV2" s="1"/>
+      <c r="AIW2" s="1"/>
+      <c r="AIX2" s="1"/>
+      <c r="AIY2" s="1"/>
+      <c r="AIZ2" s="1"/>
+      <c r="AJA2" s="1"/>
+      <c r="AJB2" s="1"/>
+      <c r="AJC2" s="1"/>
+      <c r="AJD2" s="1"/>
+      <c r="AJE2" s="1"/>
+      <c r="AJF2" s="1"/>
+      <c r="AJG2" s="1"/>
+      <c r="AJH2" s="1"/>
+      <c r="AJI2" s="1"/>
+      <c r="AJJ2" s="1"/>
+      <c r="AJK2" s="1"/>
+      <c r="AJL2" s="1"/>
+      <c r="AJM2" s="1"/>
+      <c r="AJN2" s="1"/>
+      <c r="AJO2" s="1"/>
+      <c r="AJP2" s="1"/>
+      <c r="AJQ2" s="1"/>
+      <c r="AJR2" s="1"/>
+      <c r="AJS2" s="1"/>
+      <c r="AJT2" s="1"/>
+      <c r="AJU2" s="1"/>
+      <c r="AJV2" s="1"/>
+      <c r="AJW2" s="1"/>
+      <c r="AJX2" s="1"/>
+      <c r="AJY2" s="1"/>
+      <c r="AJZ2" s="1"/>
+      <c r="AKA2" s="1"/>
+      <c r="AKB2" s="1"/>
+      <c r="AKC2" s="1"/>
+      <c r="AKD2" s="1"/>
+      <c r="AKE2" s="1"/>
+      <c r="AKF2" s="1"/>
+      <c r="AKG2" s="1"/>
+      <c r="AKH2" s="1"/>
+      <c r="AKI2" s="1"/>
+      <c r="AKJ2" s="1"/>
+      <c r="AKK2" s="1"/>
+      <c r="AKL2" s="1"/>
+      <c r="AKM2" s="1"/>
+      <c r="AKN2" s="1"/>
+      <c r="AKO2" s="1"/>
+      <c r="AKP2" s="1"/>
+      <c r="AKQ2" s="1"/>
+      <c r="AKR2" s="1"/>
+      <c r="AKS2" s="1"/>
+      <c r="AKT2" s="1"/>
+      <c r="AKU2" s="1"/>
+      <c r="AKV2" s="1"/>
+      <c r="AKW2" s="1"/>
+      <c r="AKX2" s="1"/>
+      <c r="AKY2" s="1"/>
+      <c r="AKZ2" s="1"/>
+      <c r="ALA2" s="1"/>
+      <c r="ALB2" s="1"/>
+      <c r="ALC2" s="1"/>
+      <c r="ALD2" s="1"/>
+      <c r="ALE2" s="1"/>
+      <c r="ALF2" s="1"/>
+      <c r="ALG2" s="1"/>
+      <c r="ALH2" s="1"/>
+      <c r="ALI2" s="1"/>
+      <c r="ALJ2" s="1"/>
+      <c r="ALK2" s="1"/>
+      <c r="ALL2" s="1"/>
+      <c r="ALM2" s="1"/>
+      <c r="ALN2" s="1"/>
+      <c r="ALO2" s="1"/>
+      <c r="ALP2" s="1"/>
+      <c r="ALQ2" s="1"/>
+      <c r="ALR2" s="1"/>
+      <c r="ALS2" s="1"/>
+      <c r="ALT2" s="1"/>
+      <c r="ALU2" s="1"/>
+      <c r="ALV2" s="1"/>
+      <c r="ALW2" s="1"/>
+      <c r="ALX2" s="1"/>
+      <c r="ALY2" s="1"/>
+      <c r="ALZ2" s="1"/>
+      <c r="AMA2" s="1"/>
+      <c r="AMB2" s="1"/>
+      <c r="AMC2" s="1"/>
+      <c r="AMD2" s="1"/>
+      <c r="AME2" s="1"/>
+      <c r="AMF2" s="1"/>
+      <c r="AMG2" s="1"/>
+      <c r="AMH2" s="1"/>
+      <c r="AMI2" s="1"/>
+      <c r="AMJ2" s="1"/>
+      <c r="AMK2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>1</v>
-      </c>
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="b">
-        <v>1</v>
-      </c>
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="b">
-        <v>0</v>
-      </c>
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="b">
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Sampling_input.xlsx
+++ b/Data/Sampling_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/glance_simulation/sim1/Glance_sampling/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XYANG118\OneDrive - Volvo Cars\Documents\glance_simulation\sim3\Glance_sampling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4AF0046C-C6EE-403D-851D-C86931F82143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926C75E2-3048-47E2-B162-077D803435BB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9AFC45-32A6-46BB-A661-F697B78638F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>sim_order</t>
   </si>
@@ -54,37 +54,40 @@
     <t>use_logic</t>
   </si>
   <si>
-    <t>optimised</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>baseline impact speed distribution</t>
-  </si>
-  <si>
     <t>impact speed reduction</t>
   </si>
   <si>
     <t>crash avoidance</t>
   </si>
   <si>
-    <t>injury risk reduction</t>
-  </si>
-  <si>
-    <t>SRS</t>
-  </si>
-  <si>
     <t>importance sampling</t>
   </si>
   <si>
-    <t>pps, size = prior weight</t>
-  </si>
-  <si>
-    <t>pps, size = prior weight * severity</t>
-  </si>
-  <si>
-    <t>all</t>
+    <t>opt_method</t>
+  </si>
+  <si>
+    <t>simple random sampling</t>
+  </si>
+  <si>
+    <t>active sampling</t>
+  </si>
+  <si>
+    <t>density sampling</t>
+  </si>
+  <si>
+    <t>severity sampling</t>
+  </si>
+  <si>
+    <t>naive</t>
+  </si>
+  <si>
+    <t>prediction uncertainty</t>
+  </si>
+  <si>
+    <t>model uncertainty</t>
   </si>
 </sst>
 </file>
@@ -120,13 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,23 +443,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK11"/>
+  <dimension ref="A1:AML12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.109375" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="31.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.109375" style="1" customWidth="1"/>
+    <col min="7" max="1026" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -471,221 +473,236 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B10" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="G10" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Data/Sampling_input.xlsx
+++ b/Data/Sampling_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XYANG118\OneDrive - Volvo Cars\Documents\glance_simulation\sim3\Glance_sampling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9AFC45-32A6-46BB-A661-F697B78638F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6412E782-8262-4610-975C-A653BC5EDB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:AML12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
